--- a/xlsx/瓜德罗普_intext.xlsx
+++ b/xlsx/瓜德罗普_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
   <si>
     <t>瓜德罗普</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_瓜德罗普</t>
+    <t>政策_政策_美国_瓜德罗普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81_(%E6%B3%95%E5%9C%8B)</t>
   </si>
   <si>
-    <t>省 (法國)</t>
+    <t>省 (法国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%B0%E5%9F%9F%E7%B5%B1%E8%A8%88%E5%96%AE%E4%BD%8D%E5%91%BD%E5%90%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>法國地域統計單位命名法</t>
+    <t>法国地域统计单位命名法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AE%89%E7%9A%84%E5%88%97%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9C%97%E5%BE%B7%E7%89%B9%E5%B0%94%E5%B2%9B</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -491,31 +491,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -611,15 +608,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>法國本土</t>
+    <t>法国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81_(%E6%B3%95%E5%9B%BD)</t>
   </si>
   <si>
-    <t>省 (法国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/INSEE%E7%BC%96%E7%A0%81</t>
   </si>
   <si>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E9%83%A8%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>大東部大區</t>
+    <t>大东部大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E6%96%AF%E5%A0%A1</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%98%BF%E5%9F%BA%E5%9D%A6%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>新阿基坦大區</t>
+    <t>新阿基坦大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E5%A4%9A</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%87%E5%B0%BC-%E9%9A%86-%E9%98%BF%E7%88%BE%E5%8D%91%E6%96%AF%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>奧文尼-隆-阿爾卑斯大區</t>
+    <t>奥文尼-隆-阿尔卑斯大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%98%82</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9C%81_(%E6%B3%95%E5%9C%8B)</t>
   </si>
   <si>
-    <t>安省 (法國)</t>
+    <t>安省 (法国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%97%E7%9C%81</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%A0%B9%E5%9C%B0-%E6%B3%95%E8%98%AD%E7%90%AA-%E5%BA%B7%E5%A0%A4%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>布根地-法蘭琪-康堤大區</t>
+    <t>布根地-法兰琪-康堤大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E6%88%8E</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E5%A1%94%E5%B0%BC%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>布列塔尼大區</t>
+    <t>布列塔尼大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%81%A9_(%E4%BC%8A%E5%8B%92-%E7%BB%B4%E8%8E%B1%E8%AE%B7%E7%9C%81)</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE-%E7%9B%A7%E7%93%A6%E7%88%BE%E6%B2%B3%E8%B0%B7%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>中央-盧瓦爾河谷大區</t>
+    <t>中央-卢瓦尔河谷大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B0%94%E8%89%AF</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E5%B3%B6%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>法蘭西島大區</t>
+    <t>法兰西岛大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E7%9C%81</t>
@@ -1091,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A5%BF%E5%9D%A6%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>歐西坦尼亞大區</t>
+    <t>欧西坦尼亚大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%8D%A2%E5%85%B9</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B3%95%E8%98%AD%E8%A5%BF%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>上法蘭西大區</t>
+    <t>上法兰西大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%B0%94</t>
@@ -1199,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>諾爾省</t>
+    <t>诺尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%85%B9%E7%9C%81</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%AB%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
@@ -1403,19 +1397,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>圣巴泰勒米岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1451,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%83%A1%E5%AE%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>新胡安島</t>
+    <t>新胡安岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BD%97%E5%A7%86%E5%85%B0%E5%B2%9B</t>
@@ -1499,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西殖民帝國</t>
+    <t>法兰西殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -1517,13 +1508,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
   </si>
   <si>
-    <t>属地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
@@ -1535,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納群島</t>
+    <t>瓦利斯和富图纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
@@ -1547,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%B8%82</t>
   </si>
   <si>
-    <t>特別市</t>
+    <t>特别市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -1559,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩巴</t>
+    <t>萨巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A5%88%E5%B0%94</t>
@@ -1607,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1679,9 +1667,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
@@ -1691,7 +1676,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1703,19 +1688,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南極條約</t>
+    <t>南极条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1733,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1745,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4442,7 +4424,7 @@
         <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4468,10 +4450,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4497,10 +4479,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4526,10 +4508,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4555,10 +4537,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4584,10 +4566,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4613,10 +4595,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4642,10 +4624,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4671,10 +4653,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4700,10 +4682,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4729,10 +4711,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4758,10 +4740,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4787,10 +4769,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4816,10 +4798,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4845,10 +4827,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4874,10 +4856,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4903,10 +4885,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4932,10 +4914,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4961,10 +4943,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4990,10 +4972,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5019,10 +5001,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5048,10 +5030,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5077,10 +5059,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5106,10 +5088,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5135,10 +5117,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5164,10 +5146,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5193,10 +5175,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5222,10 +5204,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5251,10 +5233,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5280,10 +5262,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5309,10 +5291,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5338,10 +5320,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5367,10 +5349,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5396,10 +5378,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5425,10 +5407,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5454,10 +5436,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5483,10 +5465,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5512,10 +5494,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5541,10 +5523,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5570,10 +5552,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5599,10 +5581,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5628,10 +5610,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5657,10 +5639,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5686,10 +5668,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5715,10 +5697,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5744,10 +5726,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5773,10 +5755,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5802,10 +5784,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5831,10 +5813,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5860,10 +5842,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5889,10 +5871,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5918,10 +5900,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5947,10 +5929,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5976,10 +5958,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6005,10 +5987,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6034,10 +6016,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -6063,10 +6045,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6092,10 +6074,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6121,10 +6103,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6150,10 +6132,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6179,10 +6161,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6208,10 +6190,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6237,10 +6219,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6266,10 +6248,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6295,10 +6277,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6324,10 +6306,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6353,10 +6335,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6382,10 +6364,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6411,10 +6393,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6440,10 +6422,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6469,10 +6451,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6498,10 +6480,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6527,10 +6509,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6556,10 +6538,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6585,10 +6567,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6614,10 +6596,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6643,10 +6625,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6672,10 +6654,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6701,10 +6683,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6730,10 +6712,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6759,10 +6741,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6788,10 +6770,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6817,10 +6799,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6846,10 +6828,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6875,10 +6857,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6904,10 +6886,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6933,10 +6915,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6962,10 +6944,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6991,10 +6973,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7020,10 +7002,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7049,10 +7031,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7078,10 +7060,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7107,10 +7089,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7136,10 +7118,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7165,10 +7147,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7194,10 +7176,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7223,10 +7205,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7252,10 +7234,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7281,10 +7263,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7310,10 +7292,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7339,10 +7321,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7368,10 +7350,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7397,10 +7379,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7426,10 +7408,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7455,10 +7437,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7484,10 +7466,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7513,10 +7495,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7542,10 +7524,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7571,10 +7553,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7600,10 +7582,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7629,10 +7611,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7658,10 +7640,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7687,10 +7669,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7716,10 +7698,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7745,10 +7727,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7774,10 +7756,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7803,10 +7785,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7832,10 +7814,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7861,10 +7843,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7890,10 +7872,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7919,10 +7901,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7948,10 +7930,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7977,10 +7959,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8006,10 +7988,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8035,10 +8017,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8064,10 +8046,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8093,10 +8075,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8122,10 +8104,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8151,10 +8133,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8180,10 +8162,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8209,10 +8191,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8238,10 +8220,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8267,10 +8249,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8296,10 +8278,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8325,10 +8307,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8354,10 +8336,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8383,10 +8365,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8412,10 +8394,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8441,10 +8423,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8470,10 +8452,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8499,10 +8481,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>6</v>
@@ -8528,10 +8510,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8557,10 +8539,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>190</v>
+      </c>
+      <c r="F223" t="s">
         <v>191</v>
-      </c>
-      <c r="F223" t="s">
-        <v>192</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8586,10 +8568,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8644,10 +8626,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8673,10 +8655,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8702,10 +8684,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8731,10 +8713,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8760,10 +8742,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8789,10 +8771,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8818,10 +8800,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8847,10 +8829,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8876,10 +8858,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>161</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8905,10 +8887,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8934,10 +8916,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8963,13 +8945,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -8992,10 +8974,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9021,10 +9003,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9050,10 +9032,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9079,10 +9061,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9108,10 +9090,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9137,10 +9119,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9166,10 +9148,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9195,10 +9177,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9224,10 +9206,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9253,10 +9235,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9282,10 +9264,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F248" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9311,10 +9293,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9340,10 +9322,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9369,10 +9351,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9398,10 +9380,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9427,10 +9409,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>136</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9456,10 +9438,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9514,10 +9496,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9543,10 +9525,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9572,10 +9554,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F258" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9601,10 +9583,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9630,10 +9612,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9688,10 +9670,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9717,10 +9699,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9746,10 +9728,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9775,10 +9757,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9804,10 +9786,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9833,10 +9815,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9862,10 +9844,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9891,10 +9873,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9920,10 +9902,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9949,10 +9931,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9978,10 +9960,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10007,10 +9989,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10036,10 +10018,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10065,10 +10047,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10094,10 +10076,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10123,10 +10105,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10152,10 +10134,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10181,10 +10163,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10210,10 +10192,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10239,10 +10221,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10268,10 +10250,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10297,10 +10279,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10355,10 +10337,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>152</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10384,10 +10366,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>172</v>
+      </c>
+      <c r="F286" t="s">
         <v>173</v>
-      </c>
-      <c r="F286" t="s">
-        <v>174</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10413,10 +10395,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10442,10 +10424,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10471,10 +10453,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10500,10 +10482,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>183</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10529,10 +10511,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10558,10 +10540,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10587,10 +10569,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10616,10 +10598,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10645,10 +10627,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10674,10 +10656,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10703,10 +10685,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10732,10 +10714,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
